--- a/medicine/Sexualité et sexologie/Tribadisme/Tribadisme.xlsx
+++ b/medicine/Sexualité et sexologie/Tribadisme/Tribadisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tribadisme[1] est une pratique sexuelle lesbienne qui consiste :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tribadisme est une pratique sexuelle lesbienne qui consiste :
 à se frotter mutuellement la vulve, le clitoris, afin d'obtenir, par le frottement, du plaisir, voire l'orgasme
 à obtenir le plaisir et l'orgasme par le frottement contre une cuisse, contre un sein, contre l'os pubien, contre un pied, etc.
 </t>
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'Antiquité, le tribadisme désignait la recherche de l'orgasme avec une personne de même sexe, raison pour laquelle ce mot peut être synonyme de lesbianisme, voire d'homosexualité[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'Antiquité, le tribadisme désignait la recherche de l'orgasme avec une personne de même sexe, raison pour laquelle ce mot peut être synonyme de lesbianisme, voire d'homosexualité.
 </t>
         </is>
       </c>
@@ -544,92 +558,308 @@
           <t>Pratiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le tribadisme peut être pratiqué de diverses manières, en fonction du degré de proximité et d'intimité désiré avec la partenaire.
-La position du ciseau
-La position la plus connue, mais assez complexe à maîtriser, est celle du ciseau. Il y a plusieurs variantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tribadisme peut être pratiqué de diverses manières, en fonction du degré de proximité et d'intimité désiré avec la partenaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tribadisme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pratiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La position du ciseau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La position la plus connue, mais assez complexe à maîtriser, est celle du ciseau. Il y a plusieurs variantes :
 La position du « ciseau vertical » : les deux partenaires sont assises, les cuisses écartées, les jambes en V, chaque partenaire prenant en ciseaux le bassin de l'autre afin d'obtenir un contact maximal entre les deux vulves. Les partenaires sont actives, remuant de concert pour assurer la stimulation de la vulve et du clitoris. Elles ont les mains libres pour caresser les autres zones érogènes.
 La position du « ciseau alterné » : le principe est le même, mais l'une des deux partenaires est allongée sur le dos, une jambe repliée, pendant que l'autre la surmonte. Les deux peuvent remuer, ou l'une des deux peut rester « passive ».
 La position du « ciseau allongé » : les deux partenaires sont allongées, prenant en ciseau le bassin de l'autre, et remuent toutes les deux.
 Cette pratique sexuelle a de nombreux avantages. En effet, elle permet un frottement optimal entre les deux sexes et elle offre la liberté de stimuler de nombreuses zones érogènes disponibles. En revanche, elle nécessite une excellente lubrification et présente des difficultés physiques. Le ciseau peut aussi être pratiqué en glissant un vibromasseur entre les deux partenaires.
-La position du missionnaire
-Cette position sexuelle répandue chez les couples hétérosexuels est également pratiquée par les couples lesbiens, car il permet l'échange de baisers. En pratique, l'une des deux femmes est couchée sur le dos, cuisses écartées, tandis que la seconde s'allonge sur elle. Le plaisir est obtenu par le frottement des deux zones génitales l'une contre l'autre.
-Autres positions
-Il est impossible de décrire toutes les pratiques du tribadisme. Néanmoins voici les plus courantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tribadisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pratiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La position du missionnaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette position sexuelle répandue chez les couples hétérosexuels est également pratiquée par les couples lesbiens, car il permet l'échange de baisers. En pratique, l'une des deux femmes est couchée sur le dos, cuisses écartées, tandis que la seconde s'allonge sur elle. Le plaisir est obtenu par le frottement des deux zones génitales l'une contre l'autre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tribadisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pratiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres positions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il est impossible de décrire toutes les pratiques du tribadisme. Néanmoins voici les plus courantes :
 Les deux femmes s'allongent sur le ventre, l'une sur l'autre. Celle du dessus, dans un mouvement ondulant du bassin, frotte son sexe contre les fesses de sa partenaire.
 L'une des deux femmes caresse le sexe de sa partenaire avec ses seins.
 En frottant une cuisse contre leur sexe, les deux femmes se donnent simultanément du plaisir.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tribadisme</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tribadisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cinéma
-1991 : Sex and Zen, entre Rena Murakami et Isabella Chow
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1991 : Sex and Zen, entre Rena Murakami et Isabella Chow
 2013 : La Vie d'Adèle, entre Léa Seydoux et Adèle Exarchopoulos
 2015 : Sense8 (série télévisée), entre Freema Agyeman et Jamie Clayton (saison 1, épisode 1)
-2017 : Amori che non sanno stare al mondo, entre Lucia Mascino et Valentina Bellè
-Peinture
-XVIIIe siècle : Les Deux Amies de Jean-Jacques Lagrenée
-Jeux vidéo
-Dans la saga Mass Effect, plusieurs options de romances lesbiennes sont possibles si le joueur décide d'incarner un Commandant Shepard féminin.
+2017 : Amori che non sanno stare al mondo, entre Lucia Mascino et Valentina Bellè</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tribadisme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>XVIIIe siècle : Les Deux Amies de Jean-Jacques Lagrenée</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tribadisme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans la saga Mass Effect, plusieurs options de romances lesbiennes sont possibles si le joueur décide d'incarner un Commandant Shepard féminin.
 Dans The Last of Us Part II, le personnage d'Ellie a une relation sexuelle avec le personnage de Dina.
-Dans Cyberpunk 2077, si le joueur décide d'incarner un V femme, il peut commencer une romance avec le personnage de Judy Alvarez et avoir une relation sexuelle avec elle.
-Manga et anime
-Dans le manga Chainsaw Man de Tatsuki Fujimoto, la Devil Hunter Quanxi a plusieurs fois des relations sexuelles avec les quatre hominidémones qui l'accompagnent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tribadisme</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Dans Cyberpunk 2077, si le joueur décide d'incarner un V femme, il peut commencer une romance avec le personnage de Judy Alvarez et avoir une relation sexuelle avec elle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tribadisme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Manga et anime</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dans le manga Chainsaw Man de Tatsuki Fujimoto, la Devil Hunter Quanxi a plusieurs fois des relations sexuelles avec les quatre hominidémones qui l'accompagnent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tribadisme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribadisme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Risques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La position en ciseau peut engendrer la transmission de MST comme l'herpès génital ou le condylome, voire le VIH par l'échange des sécrétions vaginales (au même titre qu'un rapport hétérosexuel).
 </t>
